--- a/biology/Médecine/Photopléthysmographie/Photopléthysmographie.xlsx
+++ b/biology/Médecine/Photopléthysmographie/Photopléthysmographie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Photopl%C3%A9thysmographie</t>
+          <t>Photopléthysmographie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La photopléthysmographie est une technique d'exploration fonctionnelle vasculaire non invasive.
 C'est aussi une technologie utilisée notamment par les montres et bracelets connectés pour mesurer la fréquence cardiaque du porteur de la montre.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Photopl%C3%A9thysmographie</t>
+          <t>Photopléthysmographie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Apnée du sommeil
  Portail de la médecine                     </t>
